--- a/Sharkspray/TestResult/VisualizeModelData.xlsx
+++ b/Sharkspray/TestResult/VisualizeModelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3M-projects\sharkspray\Sharkspray\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAHUL\Source\Repos\sharkspray_script\Sharkspray\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC36AFB-AA96-48CB-AEB8-94BE2FA10F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A41B3D-4207-4213-9888-FBB94C649144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="2580" windowWidth="22476" windowHeight="6240" xr2:uid="{764E3B5E-7AE7-4CB3-9391-C5E75C8527D0}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7995" xr2:uid="{764E3B5E-7AE7-4CB3-9391-C5E75C8527D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>chart download failed.</t>
+    <t>The expected element //*[@id='idSIButton9'] not found</t>
   </si>
 </sst>
 </file>
@@ -674,18 +674,18 @@
       <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -740,13 +740,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -769,7 +769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
